--- a/DB2/MAPDB2R.xlsx
+++ b/DB2/MAPDB2R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dynamic\Mainframe\DB2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15B2F29-B871-4A4F-9510-7A958A124BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504A8CA5-14C3-40E0-863C-7F3D616AEFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA64248A-43C7-4D0B-8895-3E5C2BC5B090}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="41">
   <si>
     <t>I</t>
   </si>
@@ -607,7 +607,7 @@
   <dimension ref="A1:CF28"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="55" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.140625" defaultRowHeight="14.25"/>
@@ -1639,25 +1639,15 @@
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1671,106 +1661,106 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="AA8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="7"/>
       <c r="AF8" s="7" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AI8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL8" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="AL8" s="7"/>
       <c r="AM8" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AO8" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="AO8" s="7"/>
       <c r="AP8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="AR8" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AT8" s="7"/>
+      <c r="AT8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AU8" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AW8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="7" t="s">
+      <c r="BF8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="BB8" s="7" t="s">
+      <c r="BG8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="BC8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="BH8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BI8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="BJ8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM8" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
       <c r="BO8" s="9"/>
       <c r="BP8" s="9"/>
@@ -1801,16 +1791,18 @@
       <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -1819,10 +1811,10 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -1831,10 +1823,10 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
@@ -1843,10 +1835,10 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
-      <c r="AP9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
@@ -1855,10 +1847,10 @@
       <c r="AW9" s="8"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8"/>
-      <c r="AZ9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="BB9" s="8"/>
       <c r="BC9" s="8"/>
       <c r="BD9" s="8"/>
@@ -1867,10 +1859,10 @@
       <c r="BG9" s="8"/>
       <c r="BH9" s="8"/>
       <c r="BI9" s="8"/>
-      <c r="BJ9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="BL9" s="8"/>
       <c r="BM9" s="8"/>
       <c r="BN9" s="8"/>
@@ -1879,10 +1871,10 @@
       <c r="BQ9" s="8"/>
       <c r="BR9" s="8"/>
       <c r="BS9" s="8"/>
-      <c r="BT9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="BV9" s="8"/>
       <c r="BW9" s="8"/>
       <c r="BX9" s="8"/>
@@ -1891,9 +1883,7 @@
       <c r="CA9" s="8"/>
       <c r="CB9" s="8"/>
       <c r="CC9" s="8"/>
-      <c r="CD9" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="CD9" s="8"/>
       <c r="CE9" s="8" t="s">
         <v>10</v>
       </c>
@@ -1907,20 +1897,20 @@
       <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2051,21 +2041,11 @@
       <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2389,234 +2369,242 @@
       <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="M13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="Q13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="V13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="8" t="s">
+      <c r="X13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Z13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="8" t="s">
+      <c r="AB13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AB13" s="8" t="s">
+      <c r="AC13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="8" t="s">
+      <c r="AD13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AE13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="AF13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AH13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AI13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AI13" s="8" t="s">
+      <c r="AJ13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AJ13" s="8" t="s">
+      <c r="AK13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AK13" s="8" t="s">
+      <c r="AL13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AL13" s="8" t="s">
+      <c r="AM13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM13" s="8" t="s">
+      <c r="AN13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AN13" s="8" t="s">
+      <c r="AO13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AO13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="AP13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AQ13" s="8" t="s">
+      <c r="AR13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AR13" s="8" t="s">
+      <c r="AS13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AS13" s="8" t="s">
+      <c r="AT13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AT13" s="8" t="s">
+      <c r="AU13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AU13" s="8" t="s">
+      <c r="AV13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AV13" s="8" t="s">
+      <c r="AW13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AW13" s="8" t="s">
+      <c r="AX13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="8" t="s">
+      <c r="AY13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AY13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="AZ13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BA13" s="8" t="s">
+      <c r="BB13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BB13" s="8" t="s">
+      <c r="BC13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BC13" s="8" t="s">
+      <c r="BD13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BD13" s="8" t="s">
+      <c r="BE13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BE13" s="8" t="s">
+      <c r="BF13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BF13" s="8" t="s">
+      <c r="BG13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BG13" s="8" t="s">
+      <c r="BH13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BH13" s="8" t="s">
+      <c r="BI13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BI13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="BJ13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BK13" s="8" t="s">
+      <c r="BL13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BL13" s="8" t="s">
+      <c r="BM13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BM13" s="8" t="s">
+      <c r="BN13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BN13" s="8" t="s">
+      <c r="BO13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BO13" s="8" t="s">
+      <c r="BP13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BP13" s="8" t="s">
+      <c r="BQ13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BQ13" s="8" t="s">
+      <c r="BR13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BR13" s="8" t="s">
+      <c r="BS13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BS13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="BT13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BU13" s="8" t="s">
+      <c r="BV13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BV13" s="8" t="s">
+      <c r="BW13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BW13" s="8" t="s">
+      <c r="BX13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BX13" s="8" t="s">
+      <c r="BY13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BY13" s="8" t="s">
+      <c r="BZ13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="BZ13" s="8" t="s">
+      <c r="CA13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CA13" s="8" t="s">
+      <c r="CB13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="CB13" s="8" t="s">
+      <c r="CC13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="CC13" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="CD13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CE13" s="8" t="s">
         <v>4</v>
@@ -2631,224 +2619,138 @@
       <c r="C14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BV14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC14" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BT14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
       <c r="CD14" s="2"/>
       <c r="CE14" s="8" t="s">
         <v>5</v>
@@ -2863,49 +2765,23 @@
       <c r="C15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2930,24 +2806,12 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
@@ -2964,30 +2828,14 @@
       <c r="BL15" s="4"/>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
-      <c r="BO15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BP15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BV15" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
       <c r="BW15" s="4"/>
       <c r="BX15" s="4"/>
       <c r="BY15" s="4"/>
@@ -3028,75 +2876,205 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="4"/>
-      <c r="BV16" s="4"/>
-      <c r="BW16" s="4"/>
-      <c r="BX16" s="4"/>
-      <c r="BY16" s="4"/>
-      <c r="BZ16" s="4"/>
-      <c r="CA16" s="4"/>
-      <c r="CB16" s="4"/>
-      <c r="CC16" s="4"/>
+      <c r="M16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="CD16" s="2"/>
       <c r="CE16" s="8" t="s">
         <v>7</v>
@@ -3111,225 +3089,243 @@
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BV17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CD17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BT17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="CE17" s="8" t="s">
         <v>8</v>
       </c>
@@ -3343,235 +3339,123 @@
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AZ18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BK18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="BM18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BN18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BP18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BT18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="BW18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="CB18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="CC18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CD18" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="M18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
       <c r="CE18" s="8" t="s">
         <v>9</v>
       </c>
@@ -3585,43 +3469,21 @@
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -3648,60 +3510,44 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
       <c r="AW19" s="4"/>
       <c r="AX19" s="4"/>
-      <c r="AY19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
       <c r="BE19" s="4"/>
       <c r="BF19" s="4"/>
       <c r="BG19" s="4"/>
       <c r="BH19" s="4"/>
       <c r="BI19" s="4"/>
       <c r="BJ19" s="4"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="4"/>
+      <c r="BT19" s="4"/>
+      <c r="BU19" s="4"/>
+      <c r="BV19" s="4"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="4"/>
+      <c r="BY19" s="4"/>
+      <c r="BZ19" s="4"/>
+      <c r="CA19" s="4"/>
+      <c r="CB19" s="4"/>
+      <c r="CC19" s="4"/>
+      <c r="CD19" s="4"/>
       <c r="CE19" s="8" t="s">
         <v>10</v>
       </c>
@@ -3734,76 +3580,190 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
-      <c r="BP20" s="4"/>
-      <c r="BQ20" s="4"/>
-      <c r="BR20" s="4"/>
-      <c r="BS20" s="4"/>
-      <c r="BT20" s="4"/>
-      <c r="BU20" s="4"/>
-      <c r="BV20" s="4"/>
-      <c r="BW20" s="4"/>
-      <c r="BX20" s="4"/>
-      <c r="BY20" s="4"/>
-      <c r="BZ20" s="4"/>
-      <c r="CA20" s="4"/>
-      <c r="CB20" s="4"/>
-      <c r="CC20" s="4"/>
-      <c r="CD20" s="4"/>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CB20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
       <c r="CE20" s="8" t="s">
         <v>11</v>
       </c>
@@ -3815,209 +3775,99 @@
         <v>12</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AZ21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BK21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BR21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BT21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BV21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BY21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BZ21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CB21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
+      <c r="BO21" s="8"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8"/>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="8"/>
+      <c r="BX21" s="8"/>
+      <c r="BY21" s="8"/>
+      <c r="BZ21" s="8"/>
+      <c r="CA21" s="8"/>
+      <c r="CB21" s="8"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="8"/>
       <c r="CE21" s="8" t="s">
         <v>12</v>
       </c>
@@ -4031,109 +3881,145 @@
         <v>13</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="8"/>
-      <c r="BP22" s="8"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="8"/>
-      <c r="BS22" s="8"/>
-      <c r="BT22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU22" s="8"/>
-      <c r="BV22" s="8"/>
-      <c r="BW22" s="8"/>
-      <c r="BX22" s="8"/>
-      <c r="BY22" s="8"/>
-      <c r="BZ22" s="8"/>
-      <c r="CA22" s="8"/>
-      <c r="CB22" s="8"/>
-      <c r="CC22" s="8"/>
-      <c r="CD22" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
       <c r="CE22" s="8" t="s">
         <v>13</v>
       </c>
@@ -4147,155 +4033,85 @@
         <v>4</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="BH23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="BJ23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN23" s="9"/>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="9"/>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9"/>
-      <c r="BT23" s="9"/>
-      <c r="BU23" s="9"/>
-      <c r="BV23" s="9"/>
-      <c r="BW23" s="9"/>
-      <c r="BX23" s="9"/>
-      <c r="BY23" s="9"/>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
-      <c r="CD23" s="9"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
       <c r="CE23" s="8" t="s">
         <v>4</v>
       </c>
